--- a/report_ca_nhan/NV-34 Bác Sĩ Ngoài 7-2024.xlsx
+++ b/report_ca_nhan/NV-34 Bác Sĩ Ngoài 7-2024.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,6 +528,44 @@
           <t>Phụ phẫu 2</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v/>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/report_ca_nhan/NV-34 Bác Sĩ Ngoài 7-2024.xlsx
+++ b/report_ca_nhan/NV-34 Bác Sĩ Ngoài 7-2024.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Đơn 1 bác sĩ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Lương" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -423,4 +425,285 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:V3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Thanh toán lần đầu</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Trả sau</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Dư nợ</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>521</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">đa ni </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Phun môi</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
+        <v/>
+      </c>
+      <c r="L2" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Ngoài</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v/>
+      </c>
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="n">
+        <v/>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/report_ca_nhan/NV-34 Bác Sĩ Ngoài 7-2024.xlsx
+++ b/report_ca_nhan/NV-34 Bác Sĩ Ngoài 7-2024.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Đơn 1 bác sĩ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Lương" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,82 +473,107 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>Nhóm dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>Tên dịch vụ</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Sale chính</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Đơn giá gốc</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Sale phụ</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Upsale</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Đơn giá</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Thanh toán lần đầu</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Trả sau</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Đã thanh toán</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Dư nợ</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Bác sĩ 1</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Bác sĩ 2</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>Phụ phẫu 1</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>Phụ phẫu 2</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>Công phụ phẫu 1</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
@@ -584,46 +608,48 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>Môi</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>Phun môi</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Thạch Hoàng Nhân</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>5500000</v>
       </c>
-      <c r="J2" t="n">
-        <v/>
-      </c>
       <c r="K2" t="n">
         <v/>
       </c>
       <c r="L2" t="n">
-        <v>5500000</v>
+        <v/>
       </c>
       <c r="M2" t="n">
         <v>5500000</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5500000</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>5500000</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
         <is>
           <t>Bác Sĩ Ngoài</t>
         </is>
       </c>
-      <c r="R2" t="n">
-        <v/>
-      </c>
       <c r="S2" t="n">
         <v/>
       </c>
@@ -631,79 +657,188 @@
         <v/>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>537</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dương thị lệ </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Vùng mắt</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v/>
+      </c>
+      <c r="J3" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="K3" t="n">
+        <v/>
+      </c>
+      <c r="L3" t="n">
+        <v/>
+      </c>
+      <c r="M3" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Ngoài</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="n">
+        <v/>
+      </c>
+      <c r="U3" t="n">
+        <v/>
+      </c>
+      <c r="V3" t="n">
+        <v/>
+      </c>
+      <c r="W3" t="n">
+        <v/>
+      </c>
+      <c r="X3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
-        <v>5500000</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5500000</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5500000</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>5500000</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>6500000</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6500000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6500000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>6500000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>100000</v>
+      </c>
+      <c r="AA4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/report_ca_nhan/NV-34 Bác Sĩ Ngoài 7-2024.xlsx
+++ b/report_ca_nhan/NV-34 Bác Sĩ Ngoài 7-2024.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Đơn 1 bác sĩ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Đơn thu nợ" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,7 +609,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Môi</t>
+          <t>Phun xăm</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -709,7 +710,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Vùng mắt</t>
+          <t>Phun xăm</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -780,61 +781,491 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>561</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>07-16-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">diệp ngọc anh </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Phun xăm</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Điêu khắc mày</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v/>
+      </c>
+      <c r="J4" t="n">
+        <v>500000</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>800000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Ngoài</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="n">
+        <v/>
+      </c>
+      <c r="U4" t="n">
+        <v/>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>6500000</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6500000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6500000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6500000</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>800000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>7800000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7800000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>7800000</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>0.1</v>
       </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
+      <c r="Y5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z5" t="n">
         <v>100000</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA5" t="n">
+        <v>26000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AB3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Ngày thu</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>notion id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Mã đơn thu nợ</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>id đơn nợ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Lượng thu</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Đơn nợ</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Thanh toán lần đầu</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>id sale chính</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>id sale phụ</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>id bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>id bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>06-30-2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>07-07-2024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>c050b03e-22d0-4cdc-8e50-69d05748efc3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>142</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>45183006-5603-42d6-a5bf-0b84f7b03e93</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-498</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v/>
+      </c>
+      <c r="N2" t="n">
+        <v/>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Ngoài</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v/>
+      </c>
+      <c r="Q2" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R2" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>c463b1a9-4fb2-4258-87a7-44193ba02405</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v/>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>545126c4-c319-4d90-a506-2627e3e232a0</t>
+        </is>
+      </c>
+      <c r="X2" t="n">
+        <v/>
+      </c>
+      <c r="Y2" t="n">
+        <v>200000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>260000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="n">
+        <v>200000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>260000</v>
+      </c>
+      <c r="AB3" t="n">
         <v>0</v>
       </c>
     </row>

--- a/report_ca_nhan/NV-34 Bác Sĩ Ngoài 7-2024.xlsx
+++ b/report_ca_nhan/NV-34 Bác Sĩ Ngoài 7-2024.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,107 +474,42 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Nhóm dịch vụ</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Tên dịch vụ</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
+          <t>Sale phụ</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Upsale</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Upsale</t>
+          <t>Đã thanh toán</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Đơn giá</t>
+          <t>Tỉ lệ chiết khấu bác sĩ 1</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale phụ</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale phụ</t>
+          <t>Chiết khấu bác sĩ 1</t>
         </is>
       </c>
     </row>
@@ -609,74 +544,29 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phun xăm</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
           <t>Phun môi</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Thạch Hoàng Nhân</t>
-        </is>
+      <c r="H2" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="I2" t="n">
+        <v/>
       </c>
       <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
         <v>5500000</v>
       </c>
-      <c r="K2" t="n">
-        <v/>
-      </c>
       <c r="L2" t="n">
-        <v/>
+        <v>5500000</v>
       </c>
       <c r="M2" t="n">
-        <v>5500000</v>
+        <v>0.1</v>
       </c>
       <c r="N2" t="n">
-        <v>5500000</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5500000</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Bác Sĩ Ngoài</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v/>
-      </c>
-      <c r="T2" t="n">
-        <v/>
-      </c>
-      <c r="U2" t="n">
-        <v/>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
+        <v>550000</v>
       </c>
     </row>
     <row r="3">
@@ -710,72 +600,29 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phun xăm</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
           <t>Phun mày</t>
         </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1000000</v>
       </c>
       <c r="I3" t="n">
         <v/>
       </c>
       <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
         <v>1000000</v>
       </c>
-      <c r="K3" t="n">
-        <v/>
-      </c>
       <c r="L3" t="n">
-        <v/>
+        <v>1000000</v>
       </c>
       <c r="M3" t="n">
-        <v>1000000</v>
+        <v>0.1</v>
       </c>
       <c r="N3" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Bác Sĩ Ngoài</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
-      <c r="T3" t="n">
-        <v/>
-      </c>
-      <c r="U3" t="n">
-        <v/>
-      </c>
-      <c r="V3" t="n">
-        <v/>
-      </c>
-      <c r="W3" t="n">
-        <v/>
-      </c>
-      <c r="X3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
         <v>100000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -809,74 +656,31 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phun xăm</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
           <t>Điêu khắc mày</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="H4" t="n">
+        <v>500000</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
       </c>
       <c r="J4" t="n">
-        <v>500000</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
+        <v>800000</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1300000</v>
       </c>
       <c r="L4" t="n">
-        <v>800000</v>
+        <v>1300000</v>
       </c>
       <c r="M4" t="n">
-        <v>1300000</v>
+        <v>0.1</v>
       </c>
       <c r="N4" t="n">
-        <v>1300000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1300000</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Bác Sĩ Ngoài</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v/>
-      </c>
-      <c r="T4" t="n">
-        <v/>
-      </c>
-      <c r="U4" t="n">
-        <v/>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>26000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="5">
@@ -893,51 +697,24 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>7000000</v>
+      </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>800000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7800000</v>
+      </c>
       <c r="L5" t="n">
-        <v>800000</v>
+        <v>7800000</v>
       </c>
       <c r="M5" t="n">
-        <v>7800000</v>
+        <v>0.3</v>
       </c>
       <c r="N5" t="n">
-        <v>7800000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>7800000</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>100000</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>26000</v>
+        <v>780000</v>
       </c>
     </row>
   </sheetData>
@@ -951,7 +728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -962,97 +739,97 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Ngày thực hiện</t>
+          <t>Tiền tố</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Mã đơn thu nợ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Lượng thu</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>Ngày thu</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>notion id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Mã đơn thu nợ</t>
+          <t>Cơ sở</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Cơ sở</t>
+          <t>Đơn nợ</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>id đơn nợ</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Lượng thu</t>
+          <t>Khách hàng</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Đơn nợ</t>
+          <t>Nguồn khách</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Nguồn khách</t>
+          <t>Sale chính</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Sale phụ</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Upsale</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Upsale</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
           <t>Bác sĩ 1</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Bác sĩ 2</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>Đã thanh toán</t>
+          <t>Tỉ lệ chiết khấu sale chính</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
+          <t>Chiết khấu sale chính</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
@@ -1062,210 +839,181 @@
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>id sale chính</t>
+          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>id sale phụ</t>
+          <t>Tỉ lệ chiết khấu bác sĩ 1</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>id bác sĩ 1</t>
+          <t>Chiết khấu bác sĩ 1</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>id bác sĩ 2</t>
+          <t>Tỉ lệ chiết khấu bác sĩ 2</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Chiết khấu bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
           <t>Chiết khấu bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>06-30-2024</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>142</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>07-07-2024</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>c050b03e-22d0-4cdc-8e50-69d05748efc3</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>142</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>HD-LUXURY-498</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>45183006-5603-42d6-a5bf-0b84f7b03e93</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2000000</v>
+          <t>Treo cung</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nguyễn thị sen </t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>HD-LUXURY-498</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
           <t>Lê Đình Hậu</t>
         </is>
       </c>
+      <c r="K2" t="n">
+        <v>7000000</v>
+      </c>
       <c r="L2" t="n">
-        <v>7000000</v>
+        <v/>
       </c>
       <c r="M2" t="n">
         <v/>
       </c>
       <c r="N2" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Ngoài</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
         <v/>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Bác Sĩ Ngoài</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v/>
-      </c>
-      <c r="Q2" t="n">
-        <v>5000000</v>
-      </c>
       <c r="R2" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>c463b1a9-4fb2-4258-87a7-44193ba02405</t>
-        </is>
+      <c r="U2" t="n">
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v/>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>545126c4-c319-4d90-a506-2627e3e232a0</t>
-        </is>
+        <v>0.1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>200000</v>
       </c>
       <c r="X2" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>200000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>260000</v>
-      </c>
-      <c r="AB2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="B3" t="n">
         <v>1</v>
       </c>
+      <c r="C3" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>2000000</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
+      <c r="K3" t="n">
         <v>7000000</v>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
       <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
+        <v>7000000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>7000000</v>
+      </c>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="n">
-        <v>5000000</v>
-      </c>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>200000</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
       <c r="Y3" t="n">
-        <v>200000</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>260000</v>
-      </c>
-      <c r="AB3" t="n">
         <v>0</v>
       </c>
     </row>
